--- a/data/in/eu_goals_women.xlsx
+++ b/data/in/eu_goals_women.xlsx
@@ -10831,7 +10831,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -10924,7 +10924,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -11017,7 +11017,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -11110,7 +11110,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -11203,7 +11203,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -11292,7 +11292,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -11381,7 +11381,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -11474,7 +11474,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -11567,7 +11567,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -11660,7 +11660,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -11753,7 +11753,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -11846,7 +11846,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -11935,7 +11935,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -12024,7 +12024,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -12113,7 +12113,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -12202,7 +12202,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -12295,7 +12295,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -12388,7 +12388,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -12481,7 +12481,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -12570,7 +12570,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -12663,7 +12663,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -12756,7 +12756,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -12849,7 +12849,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -12942,7 +12942,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -13035,7 +13035,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -13128,7 +13128,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -13217,7 +13217,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -13306,7 +13306,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -13395,7 +13395,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -13484,7 +13484,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -13573,7 +13573,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -13662,7 +13662,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -13751,7 +13751,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -13840,7 +13840,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -13929,7 +13929,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -14018,7 +14018,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -14107,7 +14107,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -14196,7 +14196,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Semi-finals</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -14289,7 +14289,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Semi-finals</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -14382,7 +14382,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -14471,7 +14471,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -14560,7 +14560,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -14649,7 +14649,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -14738,7 +14738,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -14827,7 +14827,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -14916,7 +14916,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -15005,7 +15005,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -15094,7 +15094,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -15183,7 +15183,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -15272,7 +15272,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -15361,7 +15361,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -15450,7 +15450,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -15539,7 +15539,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -15628,7 +15628,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -15717,7 +15717,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -15806,7 +15806,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -15895,7 +15895,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -15984,7 +15984,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -16073,7 +16073,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -16162,7 +16162,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -16251,7 +16251,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -16340,7 +16340,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -16429,7 +16429,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -16518,7 +16518,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -16607,7 +16607,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -16696,7 +16696,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -16785,7 +16785,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -16874,7 +16874,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -16963,7 +16963,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -17052,7 +17052,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -17141,7 +17141,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -17230,7 +17230,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -17319,7 +17319,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -17408,7 +17408,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -17497,7 +17497,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>First round</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -17586,7 +17586,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Semi-finals</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -17675,7 +17675,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Semi-finals</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -17764,7 +17764,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Semi-finals</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -17853,7 +17853,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Semi-finals</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -17942,7 +17942,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Semi-finals</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -18031,7 +18031,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Semi-finals</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -18120,7 +18120,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Semi-finals</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -18209,7 +18209,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Semi-finals</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -18298,7 +18298,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Semi-finals</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -18387,7 +18387,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Semi-finals</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -18476,7 +18476,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -18569,7 +18569,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -18662,7 +18662,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -18755,7 +18755,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -18848,7 +18848,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -18941,7 +18941,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -19034,7 +19034,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -19127,7 +19127,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -19220,7 +19220,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -19313,7 +19313,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -19406,7 +19406,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -19499,7 +19499,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -19592,7 +19592,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -19685,7 +19685,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -19778,7 +19778,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -19871,7 +19871,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -19964,7 +19964,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -20057,7 +20057,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -20150,7 +20150,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -20243,7 +20243,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -20336,7 +20336,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -20429,7 +20429,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -20522,7 +20522,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -20615,7 +20615,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -20708,7 +20708,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -20801,7 +20801,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -20894,7 +20894,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -20987,7 +20987,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -21080,7 +21080,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -21173,7 +21173,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -21266,7 +21266,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -21359,7 +21359,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -21452,7 +21452,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -21545,7 +21545,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -21638,7 +21638,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -21731,7 +21731,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -21824,7 +21824,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -21917,7 +21917,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -22010,7 +22010,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -22103,7 +22103,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -22196,7 +22196,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -22289,7 +22289,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -22382,7 +22382,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -22475,7 +22475,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -22568,7 +22568,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -22661,7 +22661,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -22754,7 +22754,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -22847,7 +22847,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -22940,7 +22940,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -23033,7 +23033,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -23126,7 +23126,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -23219,7 +23219,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -23312,7 +23312,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Quarter-finals</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -23405,7 +23405,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Quarter-finals</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -23498,7 +23498,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Quarter-finals</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -23591,7 +23591,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Quarter-finals</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -23684,7 +23684,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Quarter-finals</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -23777,7 +23777,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Quarter-finals</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -23870,7 +23870,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Quarter-finals</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -23963,7 +23963,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Quarter-finals</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -24056,7 +24056,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Quarter-finals</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -24149,7 +24149,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Quarter-finals</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -24242,7 +24242,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Quarter-finals</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -24335,7 +24335,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Quarter-finals</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -24428,7 +24428,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Semi-finals</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -24521,7 +24521,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Semi-finals</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -24614,7 +24614,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Semi-finals</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -24707,7 +24707,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Semi-finals</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -24800,7 +24800,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Semi-finals</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -24893,7 +24893,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Semi-finals</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -24986,7 +24986,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Semi-finals</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -25079,7 +25079,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -25172,7 +25172,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -25265,7 +25265,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -25358,7 +25358,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -25451,7 +25451,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -25544,7 +25544,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -25637,7 +25637,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -25730,7 +25730,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -25823,7 +25823,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -25916,7 +25916,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -26009,7 +26009,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -26102,7 +26102,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -26195,7 +26195,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -26288,7 +26288,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -26381,7 +26381,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -26474,7 +26474,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -26567,7 +26567,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -26660,7 +26660,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -26753,7 +26753,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -26846,7 +26846,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -26939,7 +26939,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -27032,7 +27032,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -27125,7 +27125,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -27218,7 +27218,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -27311,7 +27311,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -27404,7 +27404,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -27497,7 +27497,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -27590,7 +27590,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -27683,7 +27683,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -27776,7 +27776,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -27869,7 +27869,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -27962,7 +27962,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -28055,7 +28055,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -28148,7 +28148,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -28241,7 +28241,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -28334,7 +28334,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -28427,7 +28427,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -28520,7 +28520,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -28613,7 +28613,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -28706,7 +28706,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -28799,7 +28799,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -28892,7 +28892,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -28985,7 +28985,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -29078,7 +29078,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -29171,7 +29171,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -29264,7 +29264,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -29357,7 +29357,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -29450,7 +29450,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -29543,7 +29543,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Group stage</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -29636,7 +29636,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Quarter-finals</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -29729,7 +29729,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Quarter-finals</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -29822,7 +29822,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Quarter-finals</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -29915,7 +29915,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Quarter-finals</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -30008,7 +30008,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Quarter-finals</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -30101,7 +30101,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Quarter-finals</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -30194,7 +30194,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Quarter-finals</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -30287,7 +30287,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Quarter-finals</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -30380,7 +30380,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Quarter-finals</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -30473,7 +30473,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Quarter-finals</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -30566,7 +30566,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Quarter-finals</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -30659,7 +30659,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Semi-finals</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -30752,7 +30752,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Semi-finals</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -30845,7 +30845,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Semi-finals</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -30938,7 +30938,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Knockout stage</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="B339" t="n">

--- a/data/in/eu_goals_women.xlsx
+++ b/data/in/eu_goals_women.xlsx
@@ -10243,7 +10243,7 @@
         <v>0</v>
       </c>
       <c r="U127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W127" t="s">
         <v>543</v>
@@ -10432,7 +10432,7 @@
         <v>2</v>
       </c>
       <c r="U130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W130" t="s">
         <v>543</v>
@@ -13245,7 +13245,7 @@
         <v>0</v>
       </c>
       <c r="U173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W173" t="s">
         <v>551</v>
@@ -14465,7 +14465,7 @@
         <v>1</v>
       </c>
       <c r="U192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W192" t="s">
         <v>555</v>
@@ -18962,7 +18962,7 @@
         <v>0</v>
       </c>
       <c r="U261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W261" t="s">
         <v>567</v>
@@ -19030,7 +19030,7 @@
         <v>4</v>
       </c>
       <c r="U262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W262" t="s">
         <v>567</v>
@@ -19098,7 +19098,7 @@
         <v>2</v>
       </c>
       <c r="U263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W263" t="s">
         <v>567</v>
@@ -19840,7 +19840,7 @@
         <v>0</v>
       </c>
       <c r="U274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W274" t="s">
         <v>568</v>
@@ -21442,7 +21442,7 @@
         <v>3</v>
       </c>
       <c r="U298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W298" t="s">
         <v>572</v>
@@ -22926,7 +22926,7 @@
         <v>3</v>
       </c>
       <c r="U320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W320" t="s">
         <v>576</v>
@@ -26334,7 +26334,7 @@
         <v>4</v>
       </c>
       <c r="U371">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W371" t="s">
         <v>584</v>
@@ -26402,7 +26402,7 @@
         <v>2</v>
       </c>
       <c r="U372">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W372" t="s">
         <v>585</v>
@@ -27738,7 +27738,7 @@
         <v>3</v>
       </c>
       <c r="U392">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W392" t="s">
         <v>588</v>
@@ -32203,7 +32203,7 @@
         <v>3</v>
       </c>
       <c r="U457">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V457" t="s">
         <v>489</v>
@@ -34060,7 +34060,7 @@
         <v>3</v>
       </c>
       <c r="U484">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V484" t="s">
         <v>494</v>
@@ -36722,7 +36722,7 @@
         <v>5</v>
       </c>
       <c r="U522">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V522" t="s">
         <v>500</v>
@@ -37899,7 +37899,7 @@
         <v>0</v>
       </c>
       <c r="U539">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V539" t="s">
         <v>502</v>
@@ -39177,7 +39177,7 @@
         <v>5</v>
       </c>
       <c r="U557">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V557" t="s">
         <v>505</v>
@@ -39603,7 +39603,7 @@
         <v>1</v>
       </c>
       <c r="U563">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V563" t="s">
         <v>505</v>
@@ -40662,7 +40662,7 @@
         <v>12</v>
       </c>
       <c r="U578">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V578" t="s">
         <v>508</v>
@@ -41224,7 +41224,7 @@
         <v>0</v>
       </c>
       <c r="U586">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V586" t="s">
         <v>510</v>
@@ -41360,7 +41360,7 @@
         <v>2</v>
       </c>
       <c r="U588">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V588" t="s">
         <v>511</v>
